--- a/Num_3_predict/01_output/Excel_Book_Test/Num_3_2023_prediction_0816.xlsx
+++ b/Num_3_predict/01_output/Excel_Book_Test/Num_3_2023_prediction_0816.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="1052">
   <si>
     <t>No</t>
   </si>
@@ -3224,6 +3224,13 @@
   </si>
   <si>
     <t>y_pred</t>
+  </si>
+  <si>
+    <t>counter追加</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -4328,8 +4335,8 @@
   <dimension ref="A1:DP1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L230" sqref="L230"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R230" sqref="R230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5271,11 +5278,11 @@
       </c>
       <c r="AX3">
         <f>K260</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AY3">
         <f>L260</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AZ3">
         <f t="shared" si="10"/>
@@ -5702,11 +5709,11 @@
       </c>
       <c r="AX4" s="7">
         <f>AX3/AX2</f>
-        <v>0.22636103151862463</v>
+        <v>0.22922636103151864</v>
       </c>
       <c r="AY4" s="7">
         <f>AY3/AY2</f>
-        <v>0.22802197802197802</v>
+        <v>0.22527472527472528</v>
       </c>
       <c r="AZ4">
         <f t="shared" si="10"/>
@@ -8082,11 +8089,11 @@
       </c>
       <c r="T10">
         <f t="shared" si="46"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U10">
         <f t="shared" si="47"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <f t="shared" si="48"/>
@@ -10293,11 +10300,11 @@
       </c>
       <c r="T17">
         <f t="shared" si="46"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U17">
         <f t="shared" si="47"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17">
         <f t="shared" si="48"/>
@@ -57864,11 +57871,11 @@
       </c>
       <c r="BA229">
         <f t="shared" si="323"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB229">
         <f t="shared" si="324"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC229">
         <f t="shared" si="325"/>
@@ -57886,16 +57893,16 @@
         <v>15</v>
       </c>
       <c r="D230" s="5">
-        <v>620</v>
+        <v>681</v>
       </c>
       <c r="E230" s="5">
         <v>6</v>
       </c>
       <c r="F230" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G230" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230" s="5">
         <f t="shared" si="374"/>
@@ -57911,11 +57918,11 @@
       </c>
       <c r="K230" s="5">
         <f t="shared" si="377"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L230" s="5">
         <f t="shared" si="378"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M230" s="5">
         <f t="shared" si="379"/>
@@ -57938,7 +57945,10 @@
       </c>
       <c r="R230" s="5">
         <f t="shared" si="387"/>
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="S230" t="s">
+        <v>1051</v>
       </c>
       <c r="AA230" s="27" t="s">
         <v>251</v>
@@ -60109,7 +60119,7 @@
       </c>
       <c r="D260" s="3">
         <f>AVERAGE(D1:D242)</f>
-        <v>475.58951965065501</v>
+        <v>475.85589519650654</v>
       </c>
       <c r="E260" s="3">
         <f>AVERAGE(E1:E242)</f>
@@ -60117,11 +60127,11 @@
       </c>
       <c r="F260" s="3">
         <f t="shared" ref="F260:G260" si="441">AVERAGE(F1:F242)</f>
-        <v>4.3537117903930129</v>
+        <v>4.3799126637554586</v>
       </c>
       <c r="G260" s="3">
         <f t="shared" si="441"/>
-        <v>4.5414847161572052</v>
+        <v>4.5458515283842793</v>
       </c>
       <c r="H260">
         <f t="shared" ref="H260:N260" si="442">COUNTIF(H2:H258,1)</f>
@@ -60137,11 +60147,11 @@
       </c>
       <c r="K260">
         <f t="shared" si="442"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L260">
         <f t="shared" si="442"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M260">
         <f t="shared" si="442"/>
@@ -60165,7 +60175,7 @@
       </c>
       <c r="R260" s="24">
         <f>AVERAGE(R1:R242)</f>
-        <v>13.170305676855895</v>
+        <v>13.200873362445416</v>
       </c>
       <c r="AA260" s="27" t="s">
         <v>281</v>
@@ -60239,11 +60249,11 @@
       </c>
       <c r="K261" s="7">
         <f t="shared" si="443"/>
-        <v>0.34497816593886466</v>
+        <v>0.34934497816593885</v>
       </c>
       <c r="L261" s="7">
         <f>L260/SUM($H$260:$L$260)</f>
-        <v>0.36244541484716158</v>
+        <v>0.35807860262008734</v>
       </c>
       <c r="O261" s="3">
         <f>MAX(O1:O242)</f>
@@ -78730,7 +78740,7 @@
       </c>
       <c r="AG622" s="5">
         <f t="shared" si="461"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH622" s="5">
         <v>0</v>
@@ -81852,7 +81862,7 @@
       </c>
       <c r="AG683" s="5">
         <f t="shared" si="465"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH683" s="5">
         <v>2</v>
